--- a/marks.xlsx
+++ b/marks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Applied" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="145">
   <si>
     <t xml:space="preserve"> Testing</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Poor implementat6ion of bestWeight. Client is rigid. Good testing but no clear strategy(tests for nulls, negatives etc.)</t>
   </si>
   <si>
-    <t>Functionality not contained in BruteAutoComplete. Needs to improve impelemtamtion</t>
-  </si>
-  <si>
     <t>OK. No Quick Auto. Assumption that list is sorted. Basic Client. Testing adequate but no exception testing.</t>
   </si>
   <si>
@@ -436,13 +433,40 @@
   </si>
   <si>
     <t>Ni Bhriain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEEDS TO DEMONSTRATE CODE RUNNING. NO TESTS </t>
+  </si>
+  <si>
+    <t>Brute force complete. Testing adeqaute. No attempt at quick.</t>
+  </si>
+  <si>
+    <t>No Quick. Used anonynous class for comparator. Testing is weak.</t>
+  </si>
+  <si>
+    <t>Brute Force. Some Analysis. Code explaination not clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matches not woring. Code quality could be better. Using properties in methods for local vars. </t>
+  </si>
+  <si>
+    <t>Add and delete of terms. Implementsad own sorting. Implemented quick using binary. Good console.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good. Quick using binsry. Good testing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did not implement interface. Use of mapo for fast autocomplete is not going to improve things. It will for weight. </t>
+  </si>
+  <si>
+    <t>Functionality not contained in BruteAutoComplete. Needs to improve impelemtamtion: Update - much better implementation of Assigment1. Uses new form of comparators.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +478,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -479,12 +510,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,10 +909,10 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -907,13 +939,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -953,9 +985,39 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.6</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.7</v>
+      </c>
+      <c r="J3">
+        <v>0.3</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
       <c r="L3">
-        <f>(C3*$C$2+D3*$D$2+E3*$E$2+F3*$F$2+G3*$G$2+H3*$H$2+I3*$I$2+J3*$J$2)*K3</f>
-        <v>0</v>
+        <f t="shared" ref="L3:L25" si="0">(C3*$C$2+D3*$D$2+E3*$E$2+F3*$F$2+G3*$G$2+H3*$H$2+I3*$I$2+J3*$J$2)*K3</f>
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -975,7 +1037,7 @@
         <v>0.7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G4">
         <v>0.8</v>
@@ -993,11 +1055,11 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <f>(C4*$C$2+D4*$D$2+E4*$E$2+F4*$F$2+G4*$G$2+H4*$H$2+I4*$I$2+J4*$J$2)*K4</f>
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1007,9 +1069,39 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
       <c r="L5">
-        <f>(C5*$C$2+D5*$D$2+E5*$E$2+F5*$F$2+G5*$G$2+H5*$H$2+I5*$I$2+J5*$J$2)*K5</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1041,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <f>(C6*$C$2+D6*$D$2+E6*$E$2+F6*$F$2+G6*$G$2+H6*$H$2+I6*$I$2+J6*$J$2)*K6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6" t="s">
@@ -1074,11 +1166,11 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <f>(C7*$C$2+D7*$D$2+E7*$E$2+F7*$F$2+G7*$G$2+H7*$H$2+I7*$I$2+J7*$J$2)*K7</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1116,11 +1208,11 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <f>(C8*$C$2+D8*$D$2+E8*$E$2+F8*$F$2+G8*$G$2+H8*$H$2+I8*$I$2+J8*$J$2)*K8</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1130,9 +1222,39 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>0.8</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.4</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
       <c r="L9">
-        <f>(C9*$C$2+D9*$D$2+E9*$E$2+F9*$F$2+G9*$G$2+H9*$H$2+I9*$I$2+J9*$J$2)*K9</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1143,7 +1265,7 @@
         <v>23</v>
       </c>
       <c r="L10">
-        <f>(C10*$C$2+D10*$D$2+E10*$E$2+F10*$F$2+G10*$G$2+H10*$H$2+I10*$I$2+J10*$J$2)*K10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1155,7 +1277,7 @@
         <v>25</v>
       </c>
       <c r="L11">
-        <f>(C11*$C$2+D11*$D$2+E11*$E$2+F11*$F$2+G11*$G$2+H11*$H$2+I11*$I$2+J11*$J$2)*K11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1167,7 +1289,7 @@
         <v>27</v>
       </c>
       <c r="L12">
-        <f>(C12*$C$2+D12*$D$2+E12*$E$2+F12*$F$2+G12*$G$2+H12*$H$2+I12*$I$2+J12*$J$2)*K12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1206,11 +1328,11 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <f>(C13*$C$2+D13*$D$2+E13*$E$2+F13*$F$2+G13*$G$2+H13*$H$2+I13*$I$2+J13*$J$2)*K13</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1248,11 +1370,11 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <f>(C14*$C$2+D14*$D$2+E14*$E$2+F14*$F$2+G14*$G$2+H14*$H$2+I14*$I$2+J14*$J$2)*K14</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1262,9 +1384,39 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0.7</v>
+      </c>
+      <c r="I15">
+        <v>0.7</v>
+      </c>
+      <c r="J15">
+        <v>0.9</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
       <c r="L15">
-        <f>(C15*$C$2+D15*$D$2+E15*$E$2+F15*$F$2+G15*$G$2+H15*$H$2+I15*$I$2+J15*$J$2)*K15</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1275,7 +1427,7 @@
         <v>35</v>
       </c>
       <c r="L16">
-        <f>(C16*$C$2+D16*$D$2+E16*$E$2+F16*$F$2+G16*$G$2+H16*$H$2+I16*$I$2+J16*$J$2)*K16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1293,7 +1445,7 @@
         <v>0.6</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F17">
         <v>0.8</v>
@@ -1308,29 +1460,38 @@
         <v>0.5</v>
       </c>
       <c r="J17">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <f>(C17*$C$2+D17*$D$2+E17*$E$2+F17*$F$2+G17*$G$2+H17*$H$2+I17*$I$2+J17*$J$2)*K17</f>
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="N17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L18">
-        <f>(C18*$C$2+D18*$D$2+E18*$E$2+F18*$F$2+G18*$G$2+H18*$H$2+I18*$I$2+J18*$J$2)*K18</f>
-        <v>0</v>
+      <c r="C18" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1340,9 +1501,39 @@
       <c r="B19" t="s">
         <v>41</v>
       </c>
+      <c r="C19">
+        <v>0.8</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8</v>
+      </c>
+      <c r="H19">
+        <v>0.8</v>
+      </c>
+      <c r="I19">
+        <v>0.7</v>
+      </c>
+      <c r="J19">
+        <v>0.8</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
       <c r="L19">
-        <f>(C19*$C$2+D19*$D$2+E19*$E$2+F19*$F$2+G19*$G$2+H19*$H$2+I19*$I$2+J19*$J$2)*K19</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="N19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1352,9 +1543,39 @@
       <c r="B20" t="s">
         <v>43</v>
       </c>
+      <c r="C20">
+        <v>0.6</v>
+      </c>
+      <c r="D20">
+        <v>0.8</v>
+      </c>
+      <c r="E20">
+        <v>0.8</v>
+      </c>
+      <c r="F20">
+        <v>0.8</v>
+      </c>
+      <c r="G20">
+        <v>0.8</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
       <c r="L20">
-        <f>(C20*$C$2+D20*$D$2+E20*$E$2+F20*$F$2+G20*$G$2+H20*$H$2+I20*$I$2+J20*$J$2)*K20</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="N20" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1392,11 +1613,11 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <f>(C21*$C$2+D21*$D$2+E21*$E$2+F21*$F$2+G21*$G$2+H21*$H$2+I21*$I$2+J21*$J$2)*K21</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="N21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1406,9 +1627,36 @@
       <c r="B22" t="s">
         <v>47</v>
       </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.6</v>
+      </c>
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="F22">
+        <v>0.6</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>0.6</v>
+      </c>
+      <c r="J22">
+        <v>0.4</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
       <c r="L22">
-        <f>(C22*$C$2+D22*$D$2+E22*$E$2+F22*$F$2+G22*$G$2+H22*$H$2+I22*$I$2+J22*$J$2)*K22</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="N22" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1431,23 +1679,26 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="H23">
+        <v>0.7</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <f>(C23*$C$2+D23*$D$2+E23*$E$2+F23*$F$2+G23*$G$2+H23*$H$2+I23*$I$2+J23*$J$2)*K23</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
       <c r="N23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1485,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <f>(C24*$C$2+D24*$D$2+E24*$E$2+F24*$F$2+G24*$G$2+H24*$H$2+I24*$I$2+J24*$J$2)*K24</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="N24" t="s">
@@ -1527,11 +1778,11 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <f>(C25*$C$2+D25*$D$2+E25*$E$2+F25*$F$2+G25*$G$2+H25*$H$2+I25*$I$2+J25*$J$2)*K25</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="N25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="M3" sqref="M3:M27"/>
     </sheetView>
   </sheetViews>
@@ -1555,10 +1806,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
@@ -1586,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1633,13 +1884,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M27" si="0">(D4*$D$2+E4*$E$2+F4*$F$2+G4*$G$2+H4*$H$2+I4*$I$2+J4*$J$2+K4*$K$2)*L4</f>
@@ -1648,13 +1899,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
         <v>73</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -1663,13 +1914,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
@@ -1678,13 +1929,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
         <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
@@ -1693,13 +1944,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
         <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
@@ -1708,13 +1959,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
         <v>82</v>
       </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
@@ -1723,13 +1974,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
@@ -1738,13 +1989,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
         <v>87</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
@@ -1753,13 +2004,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>90</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
@@ -1768,13 +2019,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
         <v>92</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
@@ -1783,13 +2034,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
         <v>95</v>
       </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
@@ -1798,13 +2049,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
         <v>97</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>98</v>
-      </c>
-      <c r="C15" t="s">
-        <v>99</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
@@ -1813,13 +2064,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
         <v>100</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
@@ -1828,13 +2079,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
@@ -1843,10 +2094,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -1858,13 +2109,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
         <v>105</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>106</v>
-      </c>
-      <c r="C19" t="s">
-        <v>107</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
@@ -1873,13 +2124,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
         <v>108</v>
-      </c>
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
@@ -1888,13 +2139,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>111</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
@@ -1903,13 +2154,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
         <v>113</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>114</v>
-      </c>
-      <c r="C22" t="s">
-        <v>115</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
@@ -1918,10 +2169,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
         <v>116</v>
-      </c>
-      <c r="B23" t="s">
-        <v>117</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1933,13 +2184,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>119</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
@@ -1948,13 +2199,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
         <v>121</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>122</v>
-      </c>
-      <c r="C25" t="s">
-        <v>123</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
@@ -1963,13 +2214,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
         <v>124</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>125</v>
-      </c>
-      <c r="C26" t="s">
-        <v>126</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
@@ -1978,13 +2229,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
         <v>127</v>
-      </c>
-      <c r="B27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" t="s">
-        <v>128</v>
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
